--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.204947</v>
+      </c>
+      <c r="H2">
+        <v>6.614841</v>
+      </c>
+      <c r="I2">
+        <v>0.03384377946268709</v>
+      </c>
+      <c r="J2">
+        <v>0.03400382310856976</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.9331043333333334</v>
-      </c>
-      <c r="H2">
-        <v>2.799313</v>
-      </c>
-      <c r="I2">
-        <v>0.0200380644147157</v>
-      </c>
-      <c r="J2">
-        <v>0.0201696361339749</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1679753333333333</v>
+        <v>0.071204</v>
       </c>
       <c r="N2">
-        <v>0.503926</v>
+        <v>0.213612</v>
       </c>
       <c r="O2">
-        <v>0.1710492886071064</v>
+        <v>0.04698762145898268</v>
       </c>
       <c r="P2">
-        <v>0.1795354408331383</v>
+        <v>0.05520397446287689</v>
       </c>
       <c r="Q2">
-        <v>0.1567385114264445</v>
+        <v>0.157001046188</v>
       </c>
       <c r="R2">
-        <v>1.410646602838</v>
+        <v>1.413009415692</v>
       </c>
       <c r="S2">
-        <v>0.003427496663200495</v>
+        <v>0.001590238698134033</v>
       </c>
       <c r="T2">
-        <v>0.003621164514757179</v>
+        <v>0.001877146182525668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H3">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I3">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J3">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.880601</v>
       </c>
       <c r="O3">
-        <v>0.6383386910058478</v>
+        <v>0.4136704300478637</v>
       </c>
       <c r="P3">
-        <v>0.6700081550986469</v>
+        <v>0.4860056999553431</v>
       </c>
       <c r="Q3">
-        <v>0.5849323141236666</v>
+        <v>1.382208511049</v>
       </c>
       <c r="R3">
-        <v>5.264390827113</v>
+        <v>12.439876599441</v>
       </c>
       <c r="S3">
-        <v>0.01279107180878048</v>
+        <v>0.01400017080477483</v>
       </c>
       <c r="T3">
-        <v>0.01351382069513553</v>
+        <v>0.01652605185103811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H4">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I4">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J4">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.03086933333333334</v>
+        <v>0.6766295</v>
       </c>
       <c r="N4">
-        <v>0.09260800000000001</v>
+        <v>1.353259</v>
       </c>
       <c r="O4">
-        <v>0.03143424335979273</v>
+        <v>0.4465087749842807</v>
       </c>
       <c r="P4">
-        <v>0.03299376913410951</v>
+        <v>0.3497241506921817</v>
       </c>
       <c r="Q4">
-        <v>0.02880430870044445</v>
+        <v>1.4919321861365</v>
       </c>
       <c r="R4">
-        <v>0.2592387783040001</v>
+        <v>8.951593116819</v>
       </c>
       <c r="S4">
-        <v>0.0006298813932713761</v>
+        <v>0.01511154450872257</v>
       </c>
       <c r="T4">
-        <v>0.0006654723181233611</v>
+        <v>0.01189195815693174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,87 +717,87 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.204947</v>
+      </c>
+      <c r="H5">
+        <v>6.614841</v>
+      </c>
+      <c r="I5">
+        <v>0.03384377946268709</v>
+      </c>
+      <c r="J5">
+        <v>0.03400382310856976</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.9331043333333334</v>
-      </c>
-      <c r="H5">
-        <v>2.799313</v>
-      </c>
-      <c r="I5">
-        <v>0.0200380644147157</v>
-      </c>
-      <c r="J5">
-        <v>0.0201696361339749</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
       <c r="M5">
-        <v>0.1392535</v>
+        <v>0.1406773333333333</v>
       </c>
       <c r="N5">
-        <v>0.278507</v>
+        <v>0.422032</v>
       </c>
       <c r="O5">
-        <v>0.1418018445826353</v>
+        <v>0.092833173508873</v>
       </c>
       <c r="P5">
-        <v>0.09922464215006736</v>
+        <v>0.1090661748895983</v>
       </c>
       <c r="Q5">
-        <v>0.1299380442818333</v>
+        <v>0.3101860641013334</v>
       </c>
       <c r="R5">
-        <v>0.7796282656910001</v>
+        <v>2.791674576912</v>
       </c>
       <c r="S5">
-        <v>0.002841434495872351</v>
+        <v>0.003141825451055663</v>
       </c>
       <c r="T5">
-        <v>0.002001324927690728</v>
+        <v>0.003708666918074232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9331043333333334</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H6">
-        <v>2.799313</v>
+        <v>22.398687</v>
       </c>
       <c r="I6">
-        <v>0.0200380644147157</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J6">
-        <v>0.0201696361339749</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01706366666666667</v>
+        <v>0.071204</v>
       </c>
       <c r="N6">
-        <v>0.051191</v>
+        <v>0.213612</v>
       </c>
       <c r="O6">
-        <v>0.01737593244461763</v>
+        <v>0.04698762145898268</v>
       </c>
       <c r="P6">
-        <v>0.0182379927840381</v>
+        <v>0.05520397446287689</v>
       </c>
       <c r="Q6">
-        <v>0.01592218130922222</v>
+        <v>0.5316253697160001</v>
       </c>
       <c r="R6">
-        <v>0.143299631783</v>
+        <v>4.784628327444</v>
       </c>
       <c r="S6">
-        <v>0.0003481800535909966</v>
+        <v>0.005384749059696475</v>
       </c>
       <c r="T6">
-        <v>0.0003678536782681083</v>
+        <v>0.006356254034773823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
         <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J7">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1679753333333333</v>
+        <v>0.626867</v>
       </c>
       <c r="N7">
-        <v>0.503926</v>
+        <v>1.880601</v>
       </c>
       <c r="O7">
-        <v>0.1710492886071064</v>
+        <v>0.4136704300478637</v>
       </c>
       <c r="P7">
-        <v>0.1795354408331383</v>
+        <v>0.4860056999553431</v>
       </c>
       <c r="Q7">
-        <v>1.254142305018</v>
+        <v>4.680332574543001</v>
       </c>
       <c r="R7">
-        <v>11.287280745162</v>
+        <v>42.12299317088701</v>
       </c>
       <c r="S7">
-        <v>0.02742509499744126</v>
+        <v>0.04740634639633658</v>
       </c>
       <c r="T7">
-        <v>0.02897472720683715</v>
+        <v>0.05595929860705245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H8">
         <v>22.398687</v>
       </c>
       <c r="I8">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J8">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.626867</v>
+        <v>0.6766295</v>
       </c>
       <c r="N8">
-        <v>1.880601</v>
+        <v>1.353259</v>
       </c>
       <c r="O8">
-        <v>0.6383386910058478</v>
+        <v>0.4465087749842807</v>
       </c>
       <c r="P8">
-        <v>0.6700081550986469</v>
+        <v>0.3497241506921817</v>
       </c>
       <c r="Q8">
-        <v>4.680332574542999</v>
+        <v>5.051870795155501</v>
       </c>
       <c r="R8">
-        <v>42.122993170887</v>
+        <v>30.311224770933</v>
       </c>
       <c r="S8">
-        <v>0.1023476881075456</v>
+        <v>0.05116959811089119</v>
       </c>
       <c r="T8">
-        <v>0.108130759198583</v>
+        <v>0.04026767212911254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H9">
         <v>22.398687</v>
       </c>
       <c r="I9">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J9">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03086933333333334</v>
+        <v>0.1406773333333333</v>
       </c>
       <c r="N9">
-        <v>0.09260800000000001</v>
+        <v>0.422032</v>
       </c>
       <c r="O9">
-        <v>0.03143424335979273</v>
+        <v>0.092833173508873</v>
       </c>
       <c r="P9">
-        <v>0.03299376913410951</v>
+        <v>0.1090661748895983</v>
       </c>
       <c r="Q9">
-        <v>0.230477511744</v>
+        <v>1.050329185776</v>
       </c>
       <c r="R9">
-        <v>2.074297605696</v>
+        <v>9.452962671984002</v>
       </c>
       <c r="S9">
-        <v>0.005039992374918222</v>
+        <v>0.01063861775163297</v>
       </c>
       <c r="T9">
-        <v>0.005324772957082538</v>
+        <v>0.0125580145441439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.466228999999999</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H10">
-        <v>22.398687</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I10">
-        <v>0.1603344581013467</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J10">
-        <v>0.1613872284624098</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1392535</v>
+        <v>0.071204</v>
       </c>
       <c r="N10">
-        <v>0.278507</v>
+        <v>0.213612</v>
       </c>
       <c r="O10">
-        <v>0.1418018445826353</v>
+        <v>0.04698762145898268</v>
       </c>
       <c r="P10">
-        <v>0.09922464215006736</v>
+        <v>0.05520397446287689</v>
       </c>
       <c r="Q10">
-        <v>1.0396985200515</v>
+        <v>2.251529341973333</v>
       </c>
       <c r="R10">
-        <v>6.238191120309</v>
+        <v>20.26376407776</v>
       </c>
       <c r="S10">
-        <v>0.02273572190892821</v>
+        <v>0.02280538363612454</v>
       </c>
       <c r="T10">
-        <v>0.01601358999177378</v>
+        <v>0.02691988245778206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.466228999999999</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H11">
-        <v>22.398687</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I11">
-        <v>0.1603344581013467</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J11">
-        <v>0.1613872284624098</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01706366666666667</v>
+        <v>0.626867</v>
       </c>
       <c r="N11">
-        <v>0.051191</v>
+        <v>1.880601</v>
       </c>
       <c r="O11">
-        <v>0.01737593244461763</v>
+        <v>0.4136704300478637</v>
       </c>
       <c r="P11">
-        <v>0.0182379927840381</v>
+        <v>0.4860056999553431</v>
       </c>
       <c r="Q11">
-        <v>0.127401242913</v>
+        <v>19.82205275005333</v>
       </c>
       <c r="R11">
-        <v>1.146611186217</v>
+        <v>178.39847475048</v>
       </c>
       <c r="S11">
-        <v>0.002785960712513376</v>
+        <v>0.2007744287375215</v>
       </c>
       <c r="T11">
-        <v>0.002943379108133338</v>
+        <v>0.2369977242382797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H12">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I12">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J12">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.1679753333333333</v>
+        <v>0.6766295</v>
       </c>
       <c r="N12">
-        <v>0.503926</v>
+        <v>1.353259</v>
       </c>
       <c r="O12">
-        <v>0.1710492886071064</v>
+        <v>0.4465087749842807</v>
       </c>
       <c r="P12">
-        <v>0.1795354408331383</v>
+        <v>0.3497241506921817</v>
       </c>
       <c r="Q12">
-        <v>4.884689322233778</v>
+        <v>21.39558413705333</v>
       </c>
       <c r="R12">
-        <v>43.962203900104</v>
+        <v>128.37350482232</v>
       </c>
       <c r="S12">
-        <v>0.1068164817973552</v>
+        <v>0.2167124786110209</v>
       </c>
       <c r="T12">
-        <v>0.112852058363379</v>
+        <v>0.1705408554525761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H13">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I13">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J13">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.626867</v>
+        <v>0.1406773333333333</v>
       </c>
       <c r="N13">
-        <v>1.880601</v>
+        <v>0.422032</v>
       </c>
       <c r="O13">
-        <v>0.6383386910058478</v>
+        <v>0.092833173508873</v>
       </c>
       <c r="P13">
-        <v>0.6700081550986469</v>
+        <v>0.1090661748895983</v>
       </c>
       <c r="Q13">
-        <v>18.22916782242267</v>
+        <v>4.448333573262222</v>
       </c>
       <c r="R13">
-        <v>164.062510401804</v>
+        <v>40.03500215936</v>
       </c>
       <c r="S13">
-        <v>0.3986283352805531</v>
+        <v>0.04505646530494969</v>
       </c>
       <c r="T13">
-        <v>0.4211524982045556</v>
+        <v>0.05318545696600696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.07980133333334</v>
+        <v>0.9199225</v>
       </c>
       <c r="H14">
-        <v>87.23940400000001</v>
+        <v>1.839845</v>
       </c>
       <c r="I14">
-        <v>0.6244777903912161</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J14">
-        <v>0.6285781672949164</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03086933333333334</v>
+        <v>0.071204</v>
       </c>
       <c r="N14">
-        <v>0.09260800000000001</v>
+        <v>0.213612</v>
       </c>
       <c r="O14">
-        <v>0.03143424335979273</v>
+        <v>0.04698762145898268</v>
       </c>
       <c r="P14">
-        <v>0.03299376913410951</v>
+        <v>0.05520397446287689</v>
       </c>
       <c r="Q14">
-        <v>0.8976740806257779</v>
+        <v>0.06550216169</v>
       </c>
       <c r="R14">
-        <v>8.079066725632002</v>
+        <v>0.39301297014</v>
       </c>
       <c r="S14">
-        <v>0.01962998683594312</v>
+        <v>0.0006634610078084438</v>
       </c>
       <c r="T14">
-        <v>0.02073916293447014</v>
+        <v>0.0005221074880241169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.07980133333334</v>
+        <v>0.9199225</v>
       </c>
       <c r="H15">
-        <v>87.23940400000001</v>
+        <v>1.839845</v>
       </c>
       <c r="I15">
-        <v>0.6244777903912161</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J15">
-        <v>0.6285781672949164</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1392535</v>
+        <v>0.626867</v>
       </c>
       <c r="N15">
-        <v>0.278507</v>
+        <v>1.880601</v>
       </c>
       <c r="O15">
-        <v>0.1418018445826353</v>
+        <v>0.4136704300478637</v>
       </c>
       <c r="P15">
-        <v>0.09922464215006736</v>
+        <v>0.4860056999553431</v>
       </c>
       <c r="Q15">
-        <v>4.049464114971334</v>
+        <v>0.5766690578075</v>
       </c>
       <c r="R15">
-        <v>24.296784689828</v>
+        <v>3.460014346845</v>
       </c>
       <c r="S15">
-        <v>0.08855210257836274</v>
+        <v>0.00584098943292309</v>
       </c>
       <c r="T15">
-        <v>0.06237044371318326</v>
+        <v>0.004596538883984244</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.07980133333334</v>
+        <v>0.9199225</v>
       </c>
       <c r="H16">
-        <v>87.23940400000001</v>
+        <v>1.839845</v>
       </c>
       <c r="I16">
-        <v>0.6244777903912161</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J16">
-        <v>0.6285781672949164</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.01706366666666667</v>
+        <v>0.6766295</v>
       </c>
       <c r="N16">
-        <v>0.051191</v>
+        <v>1.353259</v>
       </c>
       <c r="O16">
-        <v>0.01737593244461763</v>
+        <v>0.4465087749842807</v>
       </c>
       <c r="P16">
-        <v>0.0182379927840381</v>
+        <v>0.3497241506921817</v>
       </c>
       <c r="Q16">
-        <v>0.4962080366848889</v>
+        <v>0.62244670121375</v>
       </c>
       <c r="R16">
-        <v>4.465872330164</v>
+        <v>2.489786804855</v>
       </c>
       <c r="S16">
-        <v>0.01085088389900186</v>
+        <v>0.006304663923135266</v>
       </c>
       <c r="T16">
-        <v>0.01146400407932858</v>
+        <v>0.003307616880774622</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H17">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I17">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J17">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1679753333333333</v>
+        <v>0.1406773333333333</v>
       </c>
       <c r="N17">
-        <v>0.503926</v>
+        <v>0.422032</v>
       </c>
       <c r="O17">
-        <v>0.1710492886071064</v>
+        <v>0.092833173508873</v>
       </c>
       <c r="P17">
-        <v>0.1795354408331383</v>
+        <v>0.1090661748895983</v>
       </c>
       <c r="Q17">
-        <v>0.1530755013283334</v>
+        <v>0.1294122441733334</v>
       </c>
       <c r="R17">
-        <v>0.9184530079700001</v>
+        <v>0.77647346504</v>
       </c>
       <c r="S17">
-        <v>0.003347395386403328</v>
+        <v>0.001310796097819473</v>
       </c>
       <c r="T17">
-        <v>0.002357691454572555</v>
+        <v>0.001031524761651004</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9112975000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H18">
-        <v>1.822595</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I18">
-        <v>0.01956977087517835</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J18">
-        <v>0.01313217849150916</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.626867</v>
+        <v>0.071204</v>
       </c>
       <c r="N18">
-        <v>1.880601</v>
+        <v>0.213612</v>
       </c>
       <c r="O18">
-        <v>0.6383386910058478</v>
+        <v>0.04698762145898268</v>
       </c>
       <c r="P18">
-        <v>0.6700081550986469</v>
+        <v>0.05520397446287689</v>
       </c>
       <c r="Q18">
-        <v>0.5712623299325</v>
+        <v>1.633334789893333</v>
       </c>
       <c r="R18">
-        <v>3.427573979595</v>
+        <v>14.70001310904</v>
       </c>
       <c r="S18">
-        <v>0.01249214192374572</v>
+        <v>0.01654378905721919</v>
       </c>
       <c r="T18">
-        <v>0.008798666683522185</v>
+        <v>0.01952858429977123</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9112975000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H19">
-        <v>1.822595</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I19">
-        <v>0.01956977087517835</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J19">
-        <v>0.01313217849150916</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03086933333333334</v>
+        <v>0.626867</v>
       </c>
       <c r="N19">
-        <v>0.09260800000000001</v>
+        <v>1.880601</v>
       </c>
       <c r="O19">
-        <v>0.03143424335979273</v>
+        <v>0.4136704300478637</v>
       </c>
       <c r="P19">
-        <v>0.03299376913410951</v>
+        <v>0.4860056999553431</v>
       </c>
       <c r="Q19">
-        <v>0.02813114629333334</v>
+        <v>14.37958091871333</v>
       </c>
       <c r="R19">
-        <v>0.16878687776</v>
+        <v>129.41622826842</v>
       </c>
       <c r="S19">
-        <v>0.0006151609401857404</v>
+        <v>0.1456484946763078</v>
       </c>
       <c r="T19">
-        <v>0.0004332800653767718</v>
+        <v>0.1719260863749887</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9112975000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H20">
-        <v>1.822595</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I20">
-        <v>0.01956977087517835</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J20">
-        <v>0.01313217849150916</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1392535</v>
+        <v>0.6766295</v>
       </c>
       <c r="N20">
-        <v>0.278507</v>
+        <v>1.353259</v>
       </c>
       <c r="O20">
-        <v>0.1418018445826353</v>
+        <v>0.4465087749842807</v>
       </c>
       <c r="P20">
-        <v>0.09922464215006736</v>
+        <v>0.3497241506921817</v>
       </c>
       <c r="Q20">
-        <v>0.12690136641625</v>
+        <v>15.52107328546333</v>
       </c>
       <c r="R20">
-        <v>0.5076054656650001</v>
+        <v>93.12643971277998</v>
       </c>
       <c r="S20">
-        <v>0.002775029608159824</v>
+        <v>0.1572104898305108</v>
       </c>
       <c r="T20">
-        <v>0.001303035711470808</v>
+        <v>0.1237160480727867</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9112975000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H21">
-        <v>1.822595</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I21">
-        <v>0.01956977087517835</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J21">
-        <v>0.01313217849150916</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01706366666666667</v>
+        <v>0.1406773333333333</v>
       </c>
       <c r="N21">
-        <v>0.051191</v>
+        <v>0.422032</v>
       </c>
       <c r="O21">
-        <v>0.01737593244461763</v>
+        <v>0.092833173508873</v>
       </c>
       <c r="P21">
-        <v>0.0182379927840381</v>
+        <v>0.1090661748895983</v>
       </c>
       <c r="Q21">
-        <v>0.01555007677416667</v>
+        <v>3.226970151715556</v>
       </c>
       <c r="R21">
-        <v>0.09330046064500001</v>
+        <v>29.04273136544</v>
       </c>
       <c r="S21">
-        <v>0.0003400430166837447</v>
+        <v>0.03268546890341521</v>
       </c>
       <c r="T21">
-        <v>0.0002395045765668444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H22">
-        <v>24.528474</v>
-      </c>
-      <c r="I22">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J22">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1679753333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.503926</v>
-      </c>
-      <c r="O22">
-        <v>0.1710492886071064</v>
-      </c>
-      <c r="P22">
-        <v>0.1795354408331383</v>
-      </c>
-      <c r="Q22">
-        <v>1.373392865436</v>
-      </c>
-      <c r="R22">
-        <v>12.360535788924</v>
-      </c>
-      <c r="S22">
-        <v>0.03003281976270609</v>
-      </c>
-      <c r="T22">
-        <v>0.03172979929359242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H23">
-        <v>24.528474</v>
-      </c>
-      <c r="I23">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J23">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.626867</v>
-      </c>
-      <c r="N23">
-        <v>1.880601</v>
-      </c>
-      <c r="O23">
-        <v>0.6383386910058478</v>
-      </c>
-      <c r="P23">
-        <v>0.6700081550986469</v>
-      </c>
-      <c r="Q23">
-        <v>5.125363636986</v>
-      </c>
-      <c r="R23">
-        <v>46.128272732874</v>
-      </c>
-      <c r="S23">
-        <v>0.1120794538852229</v>
-      </c>
-      <c r="T23">
-        <v>0.1184124103168505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H24">
-        <v>24.528474</v>
-      </c>
-      <c r="I24">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J24">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03086933333333334</v>
-      </c>
-      <c r="N24">
-        <v>0.09260800000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.03143424335979273</v>
-      </c>
-      <c r="P24">
-        <v>0.03299376913410951</v>
-      </c>
-      <c r="Q24">
-        <v>0.252392546688</v>
-      </c>
-      <c r="R24">
-        <v>2.271532920192</v>
-      </c>
-      <c r="S24">
-        <v>0.005519221815474268</v>
-      </c>
-      <c r="T24">
-        <v>0.005831080859056701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H25">
-        <v>24.528474</v>
-      </c>
-      <c r="I25">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J25">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.1392535</v>
-      </c>
-      <c r="N25">
-        <v>0.278507</v>
-      </c>
-      <c r="O25">
-        <v>0.1418018445826353</v>
-      </c>
-      <c r="P25">
-        <v>0.09922464215006736</v>
-      </c>
-      <c r="Q25">
-        <v>1.138558618053</v>
-      </c>
-      <c r="R25">
-        <v>6.831351708318001</v>
-      </c>
-      <c r="S25">
-        <v>0.02489755599131218</v>
-      </c>
-      <c r="T25">
-        <v>0.01753624780594878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H26">
-        <v>24.528474</v>
-      </c>
-      <c r="I26">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J26">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.01706366666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.051191</v>
-      </c>
-      <c r="O26">
-        <v>0.01737593244461763</v>
-      </c>
-      <c r="P26">
-        <v>0.0182379927840381</v>
-      </c>
-      <c r="Q26">
-        <v>0.139515234726</v>
-      </c>
-      <c r="R26">
-        <v>1.255637112534</v>
-      </c>
-      <c r="S26">
-        <v>0.003050864762827653</v>
-      </c>
-      <c r="T26">
-        <v>0.003223251341741227</v>
+        <v>0.03858251169972218</v>
       </c>
     </row>
   </sheetData>
